--- a/election_votar_data/LOHAGARA/CHUNATI/152617/152617_com_240_male_without_photo_14_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152617/152617_com_240_male_without_photo_14_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -913,7 +913,7 @@
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>আমানার বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>আমানার বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -2877,10 +2877,14 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্য তারিখ:১১/০৭/১৯৭০</t>
-        </is>
-      </c>
-      <c r="G58" s="3" t="inlineStr"/>
+          <t>ব্যবসা</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>১১/০৭/১৯৭০</t>
+        </is>
+      </c>
       <c r="H58" s="5" t="inlineStr">
         <is>
           <t>৩৮৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -2957,10 +2961,14 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৭/০৭/২০০৩</t>
-        </is>
-      </c>
-      <c r="G60" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>১৭/০৭/২০০৩</t>
+        </is>
+      </c>
       <c r="H60" s="5" t="inlineStr">
         <is>
           <t>৩৭৬, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -2995,10 +3003,14 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:১০/০২/২০০১</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>১০/০২/২০০১</t>
+        </is>
+      </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
           <t>৪১৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3075,10 +3087,14 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:০৭/০৩/২০০২</t>
-        </is>
-      </c>
-      <c r="G63" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>০৭/০৩/২০০২</t>
+        </is>
+      </c>
       <c r="H63" s="5" t="inlineStr">
         <is>
           <t>৩২৭, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3155,10 +3171,14 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:০৩/০৬/২০০১</t>
-        </is>
-      </c>
-      <c r="G65" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>০৩/০৬/২০০১</t>
+        </is>
+      </c>
       <c r="H65" s="5" t="inlineStr">
         <is>
           <t>৪৫৩, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3193,10 +3213,14 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী/জন্য তারিখ:১২/০৮/১৯৮০</t>
-        </is>
-      </c>
-      <c r="G66" s="3" t="inlineStr"/>
+          <t>প্রবাসী</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>১২/০৮/১৯৮০</t>
+        </is>
+      </c>
       <c r="H66" s="5" t="inlineStr">
         <is>
           <t>৪৭৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3231,10 +3255,14 @@
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:১৯/০৩/২০০৩</t>
-        </is>
-      </c>
-      <c r="G67" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>১৯/০৩/২০০৩</t>
+        </is>
+      </c>
       <c r="H67" s="5" t="inlineStr">
         <is>
           <t>৪৪৫, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3269,10 +3297,14 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:০৩/০৩/২০০১</t>
-        </is>
-      </c>
-      <c r="G68" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>০৩/০৩/২০০১</t>
+        </is>
+      </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
           <t>৪৪৫, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3307,10 +3339,14 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:১৩/০৩/২০০৩</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>১৩/০৩/২০০৩</t>
+        </is>
+      </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
           <t>৩৪০, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3387,10 +3423,14 @@
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:২২/১১/২০০১</t>
-        </is>
-      </c>
-      <c r="G71" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>২২/১১/২০০১</t>
+        </is>
+      </c>
       <c r="H71" s="5" t="inlineStr">
         <is>
           <t>৩৩৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3425,10 +3465,14 @@
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০১/০১/২০০৪</t>
-        </is>
-      </c>
-      <c r="G72" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>০১/০১/২০০৪</t>
+        </is>
+      </c>
       <c r="H72" s="5" t="inlineStr">
         <is>
           <t>৪৪৬, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3463,10 +3507,14 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:৩০/১০/২০০৩</t>
-        </is>
-      </c>
-      <c r="G73" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>৩০/১০/২০০৩</t>
+        </is>
+      </c>
       <c r="H73" s="5" t="inlineStr">
         <is>
           <t>৪০৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3543,10 +3591,14 @@
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:১১/০৬/২০০১</t>
-        </is>
-      </c>
-      <c r="G75" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="inlineStr">
+        <is>
+          <t>১১/০৬/২০০১</t>
+        </is>
+      </c>
       <c r="H75" s="5" t="inlineStr">
         <is>
           <t>কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -4463,10 +4515,14 @@
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৮/০৫/২০০৩</t>
-        </is>
-      </c>
-      <c r="G97" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr">
+        <is>
+          <t>০৮/০৫/২০০৩</t>
+        </is>
+      </c>
       <c r="H97" s="5" t="inlineStr">
         <is>
           <t>৩৫১, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
@@ -4763,7 +4819,7 @@
       </c>
       <c r="H104" s="5" t="inlineStr">
         <is>
-          <t>জমাতুর বর বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>জমাতুর বর বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -4889,7 +4945,7 @@
       </c>
       <c r="H107" s="5" t="inlineStr">
         <is>
-          <t>জামাল এর বাপের বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>জামাল এর বাপের বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -6769,10 +6825,14 @@
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্য তারিখ:০২/০৩/২০০৫</t>
-        </is>
-      </c>
-      <c r="G152" s="3" t="inlineStr"/>
+          <t>শ্রমিক</t>
+        </is>
+      </c>
+      <c r="G152" s="3" t="inlineStr">
+        <is>
+          <t>০২/০৩/২০০৫</t>
+        </is>
+      </c>
       <c r="H152" s="5" t="inlineStr">
         <is>
           <t>৭২৭, বরযোনা, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -7195,7 +7255,7 @@
       </c>
       <c r="H162" s="5" t="inlineStr">
         <is>
-          <t>মানিকের বর বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>মানিকের বর বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7507,7 @@
       </c>
       <c r="H168" s="5" t="inlineStr">
         <is>
-          <t>মোস্তাফিজ এর বাপের বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>মোস্তাফিজ এর বাপের বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7549,7 @@
       </c>
       <c r="H169" s="5" t="inlineStr">
         <is>
-          <t>মোহাম্মদ বশুর বাড়ি, সাতগড়, কুলাল পাড়া,, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>মোহাম্মদ বশুর বাড়ি, সাতগড়, কুলাল পাড়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -8781,10 +8841,14 @@
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্য তারিখ:০৯/০৮/১৯৯৯</t>
-        </is>
-      </c>
-      <c r="G200" s="3" t="inlineStr"/>
+          <t>ব্যবসা</t>
+        </is>
+      </c>
+      <c r="G200" s="3" t="inlineStr">
+        <is>
+          <t>০৯/০৮/১৯৯৯</t>
+        </is>
+      </c>
       <c r="H200" s="5" t="inlineStr">
         <is>
           <t>শমসু বর বাড়ী, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -8955,7 +9019,7 @@
       </c>
       <c r="H204" s="5" t="inlineStr">
         <is>
-          <t>শামসুর আলিমের বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>শামসুর আলিমের বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -9365,10 +9429,14 @@
       </c>
       <c r="F214" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৫/০২/২০০২</t>
-        </is>
-      </c>
-      <c r="G214" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G214" s="3" t="inlineStr">
+        <is>
+          <t>০৫/০২/২০০২</t>
+        </is>
+      </c>
       <c r="H214" s="5" t="inlineStr">
         <is>
           <t>৩১০, সাতগড় কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -9529,10 +9597,14 @@
       </c>
       <c r="F218" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী/জন্য তারিখ:০৫/০২/১৯৭১</t>
-        </is>
-      </c>
-      <c r="G218" s="3" t="inlineStr"/>
+          <t>প্রবাসী</t>
+        </is>
+      </c>
+      <c r="G218" s="3" t="inlineStr">
+        <is>
+          <t>০৫/০২/১৯৭১</t>
+        </is>
+      </c>
       <c r="H218" s="5" t="inlineStr">
         <is>
           <t>৪৪৯, সাতগড়, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>

--- a/election_votar_data/LOHAGARA/CHUNATI/152617/152617_com_240_male_without_photo_14_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152617/152617_com_240_male_without_photo_14_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -913,7 +913,7 @@
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>আমানার বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>আমানার বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -2877,14 +2877,10 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
-        </is>
-      </c>
-      <c r="G58" s="3" t="inlineStr">
-        <is>
-          <t>১১/০৭/১৯৭০</t>
-        </is>
-      </c>
+          <t>ব্যবসা/জন্য তারিখ:১১/০৭/১৯৭০</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr">
         <is>
           <t>৩৮৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -2961,14 +2957,10 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G60" s="3" t="inlineStr">
-        <is>
-          <t>১৭/০৭/২০০৩</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৭/০৭/২০০৩</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr">
         <is>
           <t>৩৭৬, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3003,14 +2995,10 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>১০/০২/২০০১</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:১০/০২/২০০১</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr">
         <is>
           <t>৪১৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3087,14 +3075,10 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G63" s="3" t="inlineStr">
-        <is>
-          <t>০৭/০৩/২০০২</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:০৭/০৩/২০০২</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr"/>
       <c r="H63" s="5" t="inlineStr">
         <is>
           <t>৩২৭, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3171,14 +3155,10 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G65" s="3" t="inlineStr">
-        <is>
-          <t>০৩/০৬/২০০১</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:০৩/০৬/২০০১</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr">
         <is>
           <t>৪৫৩, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3213,14 +3193,10 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
-        </is>
-      </c>
-      <c r="G66" s="3" t="inlineStr">
-        <is>
-          <t>১২/০৮/১৯৮০</t>
-        </is>
-      </c>
+          <t>প্রবাসী/জন্য তারিখ:১২/০৮/১৯৮০</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr"/>
       <c r="H66" s="5" t="inlineStr">
         <is>
           <t>৪৭৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3255,14 +3231,10 @@
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G67" s="3" t="inlineStr">
-        <is>
-          <t>১৯/০৩/২০০৩</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:১৯/০৩/২০০৩</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr"/>
       <c r="H67" s="5" t="inlineStr">
         <is>
           <t>৪৪৫, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3297,14 +3269,10 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G68" s="3" t="inlineStr">
-        <is>
-          <t>০৩/০৩/২০০১</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:০৩/০৩/২০০১</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr">
         <is>
           <t>৪৪৫, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3339,14 +3307,10 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>১৩/০৩/২০০৩</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:১৩/০৩/২০০৩</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr">
         <is>
           <t>৩৪০, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3423,14 +3387,10 @@
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G71" s="3" t="inlineStr">
-        <is>
-          <t>২২/১১/২০০১</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:২২/১১/২০০১</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr"/>
       <c r="H71" s="5" t="inlineStr">
         <is>
           <t>৩৩৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3465,14 +3425,10 @@
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G72" s="3" t="inlineStr">
-        <is>
-          <t>০১/০১/২০০৪</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০১/০১/২০০৪</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr"/>
       <c r="H72" s="5" t="inlineStr">
         <is>
           <t>৪৪৬, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3507,14 +3463,10 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G73" s="3" t="inlineStr">
-        <is>
-          <t>৩০/১০/২০০৩</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:৩০/১০/২০০৩</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr"/>
       <c r="H73" s="5" t="inlineStr">
         <is>
           <t>৪০৮, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -3591,14 +3543,10 @@
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G75" s="3" t="inlineStr">
-        <is>
-          <t>১১/০৬/২০০১</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:১১/০৬/২০০১</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="inlineStr"/>
       <c r="H75" s="5" t="inlineStr">
         <is>
           <t>কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -4515,14 +4463,10 @@
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G97" s="3" t="inlineStr">
-        <is>
-          <t>০৮/০৫/২০০৩</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৮/০৫/২০০৩</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr"/>
       <c r="H97" s="5" t="inlineStr">
         <is>
           <t>৩৫১, চুনাতি, লোহাগাড়া, চট্টগ্রাম</t>
@@ -4819,7 +4763,7 @@
       </c>
       <c r="H104" s="5" t="inlineStr">
         <is>
-          <t>জমাতুর বর বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>জমাতুর বর বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4889,7 @@
       </c>
       <c r="H107" s="5" t="inlineStr">
         <is>
-          <t>জামাল এর বাপের বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>জামাল এর বাপের বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -6825,14 +6769,10 @@
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
-        </is>
-      </c>
-      <c r="G152" s="3" t="inlineStr">
-        <is>
-          <t>০২/০৩/২০০৫</t>
-        </is>
-      </c>
+          <t>শ্রমিক/জন্য তারিখ:০২/০৩/২০০৫</t>
+        </is>
+      </c>
+      <c r="G152" s="3" t="inlineStr"/>
       <c r="H152" s="5" t="inlineStr">
         <is>
           <t>৭২৭, বরযোনা, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -7255,7 +7195,7 @@
       </c>
       <c r="H162" s="5" t="inlineStr">
         <is>
-          <t>মানিকের বর বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>মানিকের বর বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -7507,7 +7447,7 @@
       </c>
       <c r="H168" s="5" t="inlineStr">
         <is>
-          <t>মোস্তাফিজ এর বাপের বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>মোস্তাফিজ এর বাপের বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7489,7 @@
       </c>
       <c r="H169" s="5" t="inlineStr">
         <is>
-          <t>মোহাম্মদ বশুর বাড়ি, সাতগড়, কুলাল পাড়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>মোহাম্মদ বশুর বাড়ি, সাতগড়, কুলাল পাড়া,, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -8841,14 +8781,10 @@
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
-        </is>
-      </c>
-      <c r="G200" s="3" t="inlineStr">
-        <is>
-          <t>০৯/০৮/১৯৯৯</t>
-        </is>
-      </c>
+          <t>ব্যবসা/জন্য তারিখ:০৯/০৮/১৯৯৯</t>
+        </is>
+      </c>
+      <c r="G200" s="3" t="inlineStr"/>
       <c r="H200" s="5" t="inlineStr">
         <is>
           <t>শমসু বর বাড়ী, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -9019,7 +8955,7 @@
       </c>
       <c r="H204" s="5" t="inlineStr">
         <is>
-          <t>শামসুর আলিমের বাড়ি, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>শামসুর আলিমের বাড়ি, কুলাল পাড়া,, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -9429,14 +9365,10 @@
       </c>
       <c r="F214" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G214" s="3" t="inlineStr">
-        <is>
-          <t>০৫/০২/২০০২</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৫/০২/২০০২</t>
+        </is>
+      </c>
+      <c r="G214" s="3" t="inlineStr"/>
       <c r="H214" s="5" t="inlineStr">
         <is>
           <t>৩১০, সাতগড় কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
@@ -9597,14 +9529,10 @@
       </c>
       <c r="F218" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
-        </is>
-      </c>
-      <c r="G218" s="3" t="inlineStr">
-        <is>
-          <t>০৫/০২/১৯৭১</t>
-        </is>
-      </c>
+          <t>প্রবাসী/জন্য তারিখ:০৫/০২/১৯৭১</t>
+        </is>
+      </c>
+      <c r="G218" s="3" t="inlineStr"/>
       <c r="H218" s="5" t="inlineStr">
         <is>
           <t>৪৪৯, সাতগড়, কুলাল পাড়া, সাতগড়, লোহাগাড়া, চট্টগ্রাম</t>
